--- a/artilheiros_brasileirao_2022.xlsx
+++ b/artilheiros_brasileirao_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>Tempo por Gol</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Média de Gols por Partida</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -516,6 +521,9 @@
       <c r="I2" t="n">
         <v>119.3461538461538</v>
       </c>
+      <c r="J2" t="n">
+        <v>0.6842105263157895</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -553,6 +561,9 @@
       <c r="I3" t="n">
         <v>145.2105263157895</v>
       </c>
+      <c r="J3" t="n">
+        <v>0.5588235294117647</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -590,6 +601,9 @@
       <c r="I4" t="n">
         <v>156.7222222222222</v>
       </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -627,6 +641,9 @@
       <c r="I5" t="n">
         <v>175.7142857142857</v>
       </c>
+      <c r="J5" t="n">
+        <v>0.4375</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -664,6 +681,9 @@
       <c r="I6" t="n">
         <v>222.5384615384615</v>
       </c>
+      <c r="J6" t="n">
+        <v>0.3714285714285714</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -701,6 +721,9 @@
       <c r="I7" t="n">
         <v>200.75</v>
       </c>
+      <c r="J7" t="n">
+        <v>0.3636363636363636</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -738,6 +761,9 @@
       <c r="I8" t="n">
         <v>174.6666666666667</v>
       </c>
+      <c r="J8" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -775,6 +801,9 @@
       <c r="I9" t="n">
         <v>168.8333333333333</v>
       </c>
+      <c r="J9" t="n">
+        <v>0.3870967741935484</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -812,6 +841,9 @@
       <c r="I10" t="n">
         <v>106.0909090909091</v>
       </c>
+      <c r="J10" t="n">
+        <v>0.4583333333333333</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -849,6 +881,9 @@
       <c r="I11" t="n">
         <v>186.6363636363636</v>
       </c>
+      <c r="J11" t="n">
+        <v>0.3793103448275862</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -886,6 +921,9 @@
       <c r="I12" t="n">
         <v>186.8181818181818</v>
       </c>
+      <c r="J12" t="n">
+        <v>0.3548387096774194</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -923,6 +961,9 @@
       <c r="I13" t="n">
         <v>238.8181818181818</v>
       </c>
+      <c r="J13" t="n">
+        <v>0.34375</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -960,6 +1001,9 @@
       <c r="I14" t="n">
         <v>256.7</v>
       </c>
+      <c r="J14" t="n">
+        <v>0.2777777777777778</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -997,6 +1041,9 @@
       <c r="I15" t="n">
         <v>234.1</v>
       </c>
+      <c r="J15" t="n">
+        <v>0.3448275862068966</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1034,6 +1081,9 @@
       <c r="I16" t="n">
         <v>300</v>
       </c>
+      <c r="J16" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1071,6 +1121,9 @@
       <c r="I17" t="n">
         <v>271.4444444444445</v>
       </c>
+      <c r="J17" t="n">
+        <v>0.2571428571428571</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1108,6 +1161,9 @@
       <c r="I18" t="n">
         <v>251.75</v>
       </c>
+      <c r="J18" t="n">
+        <v>0.2352941176470588</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1145,6 +1201,9 @@
       <c r="I19" t="n">
         <v>349.375</v>
       </c>
+      <c r="J19" t="n">
+        <v>0.2222222222222222</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1182,6 +1241,9 @@
       <c r="I20" t="n">
         <v>181.375</v>
       </c>
+      <c r="J20" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1218,6 +1280,9 @@
       </c>
       <c r="I21" t="n">
         <v>207</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.2857142857142857</v>
       </c>
     </row>
   </sheetData>
